--- a/Running projects/Dolmen City Family Area/Running Bill No 1 (Family Area).XLSX
+++ b/Running projects/Dolmen City Family Area/Running Bill No 1 (Family Area).XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Dolmen City Family Area\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2B287D-0DF8-408A-9818-BE1E03E3ADF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA46832B-785E-49F5-821D-95592F75B6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4281,7 +4281,7 @@
     <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="401">
+  <cellXfs count="402">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5292,6 +5292,9 @@
     <xf numFmtId="167" fontId="57" fillId="5" borderId="60" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5304,6 +5307,33 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="25" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="26" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="37" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="13" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="15" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="34" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="24" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="39" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="60" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5340,31 +5370,19 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="53" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="25" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="26" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="37" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="13" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="15" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="34" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="24" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="39" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="32" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
@@ -5376,20 +5394,77 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="57" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="58" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="47" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="57" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="56" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="44" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5409,80 +5484,8 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="50" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="66" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="67" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="57" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="58" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="47" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="13" fillId="0" borderId="57" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="13" fillId="0" borderId="56" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="40" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -5619,6 +5622,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>134388</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>143667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC84001-753D-D248-EDF8-FED022C79F15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7839075" y="0"/>
+          <a:ext cx="7440063" cy="5677692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20001,10 +20053,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20015,21 +20067,23 @@
     <col min="4" max="4" width="13.140625" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="7" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="339" t="s">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="340" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="339"/>
-      <c r="C1" s="339"/>
-      <c r="D1" s="339"/>
-      <c r="E1" s="339"/>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
       <c r="F1" s="321"/>
       <c r="H1" s="325"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A2" s="321"/>
       <c r="B2" s="321"/>
       <c r="C2" s="321"/>
@@ -20038,25 +20092,25 @@
       <c r="F2" s="321"/>
       <c r="H2" s="325"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="340" t="s">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="341" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
       <c r="F3" s="302"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="337"/>
-      <c r="B4" s="338"/>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="338"/>
+      <c r="B4" s="339"/>
       <c r="C4" s="309"/>
       <c r="D4" s="309"/>
       <c r="E4" s="303"/>
       <c r="F4" s="303"/>
     </row>
-    <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="334" t="s">
         <v>263</v>
       </c>
@@ -20074,7 +20128,7 @@
       </c>
       <c r="F5" s="322"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="304"/>
       <c r="B6" s="305"/>
       <c r="C6" s="305"/>
@@ -20082,7 +20136,7 @@
       <c r="E6" s="306"/>
       <c r="F6" s="319"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="299">
         <v>1</v>
       </c>
@@ -20097,7 +20151,7 @@
       </c>
       <c r="F7" s="320"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="298"/>
       <c r="B8" s="308"/>
       <c r="C8" s="308"/>
@@ -20105,7 +20159,7 @@
       <c r="E8" s="300"/>
       <c r="F8" s="319"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="299">
         <v>2</v>
       </c>
@@ -20120,7 +20174,7 @@
       </c>
       <c r="F9" s="320"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="298"/>
       <c r="B10" s="308"/>
       <c r="C10" s="308"/>
@@ -20128,7 +20182,7 @@
       <c r="E10" s="301"/>
       <c r="F10" s="320"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="299">
         <v>3</v>
       </c>
@@ -20142,8 +20196,9 @@
         <v>1374569.2</v>
       </c>
       <c r="F11" s="320"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="401"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="299"/>
       <c r="B12" s="307"/>
       <c r="C12" s="311"/>
@@ -20151,7 +20206,7 @@
       <c r="E12" s="301"/>
       <c r="F12" s="320"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="299">
         <v>4</v>
       </c>
@@ -20166,7 +20221,7 @@
       </c>
       <c r="F13" s="320"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="298"/>
       <c r="B14" s="308"/>
       <c r="C14" s="308"/>
@@ -20174,7 +20229,7 @@
       <c r="E14" s="301"/>
       <c r="F14" s="320"/>
     </row>
-    <row r="15" spans="1:8" s="316" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="316" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="312"/>
       <c r="B15" s="313" t="s">
         <v>269</v>
@@ -20187,7 +20242,7 @@
       </c>
       <c r="F15" s="323"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E16" s="324"/>
     </row>
   </sheetData>
@@ -20203,6 +20258,7 @@
     <oddFooter xml:space="preserve">&amp;R&amp;"Arial,Bold" 
 </oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20284,66 +20340,66 @@
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:19" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="341" t="s">
+      <c r="A5" s="351" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="342" t="s">
+      <c r="B5" s="352" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="342"/>
-      <c r="D5" s="342"/>
-      <c r="E5" s="343" t="s">
+      <c r="C5" s="352"/>
+      <c r="D5" s="352"/>
+      <c r="E5" s="353" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="343"/>
-      <c r="G5" s="343"/>
-      <c r="H5" s="343"/>
-      <c r="I5" s="344" t="s">
+      <c r="F5" s="353"/>
+      <c r="G5" s="353"/>
+      <c r="H5" s="353"/>
+      <c r="I5" s="354" t="s">
         <v>274</v>
       </c>
-      <c r="J5" s="345"/>
-      <c r="K5" s="345"/>
-      <c r="L5" s="345"/>
-      <c r="M5" s="346"/>
+      <c r="J5" s="355"/>
+      <c r="K5" s="355"/>
+      <c r="L5" s="355"/>
+      <c r="M5" s="356"/>
     </row>
     <row r="6" spans="1:19" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="341"/>
-      <c r="B6" s="342"/>
-      <c r="C6" s="342"/>
-      <c r="D6" s="342"/>
-      <c r="E6" s="349" t="s">
+      <c r="A6" s="351"/>
+      <c r="B6" s="352"/>
+      <c r="C6" s="352"/>
+      <c r="D6" s="352"/>
+      <c r="E6" s="359" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="351" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="349" t="s">
+      <c r="F6" s="361" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="359" t="s">
         <v>272</v>
       </c>
-      <c r="H6" s="349" t="s">
+      <c r="H6" s="359" t="s">
         <v>273</v>
       </c>
-      <c r="I6" s="344" t="s">
+      <c r="I6" s="354" t="s">
         <v>267</v>
       </c>
-      <c r="J6" s="346"/>
-      <c r="K6" s="344" t="s">
+      <c r="J6" s="356"/>
+      <c r="K6" s="354" t="s">
         <v>268</v>
       </c>
-      <c r="L6" s="346"/>
-      <c r="M6" s="347" t="s">
+      <c r="L6" s="356"/>
+      <c r="M6" s="357" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="341"/>
-      <c r="B7" s="342"/>
-      <c r="C7" s="342"/>
-      <c r="D7" s="342"/>
-      <c r="E7" s="350"/>
-      <c r="F7" s="352"/>
-      <c r="G7" s="350"/>
-      <c r="H7" s="350"/>
+      <c r="A7" s="351"/>
+      <c r="B7" s="352"/>
+      <c r="C7" s="352"/>
+      <c r="D7" s="352"/>
+      <c r="E7" s="360"/>
+      <c r="F7" s="362"/>
+      <c r="G7" s="360"/>
+      <c r="H7" s="360"/>
       <c r="I7" s="331" t="s">
         <v>275</v>
       </c>
@@ -20356,7 +20412,7 @@
       <c r="L7" s="331" t="s">
         <v>270</v>
       </c>
-      <c r="M7" s="348"/>
+      <c r="M7" s="358"/>
     </row>
     <row r="8" spans="1:19" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="327">
@@ -20535,14 +20591,14 @@
       <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="356" t="s">
+      <c r="A13" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="357"/>
-      <c r="C13" s="357"/>
-      <c r="D13" s="357"/>
-      <c r="E13" s="357"/>
-      <c r="F13" s="358"/>
+      <c r="B13" s="346"/>
+      <c r="C13" s="346"/>
+      <c r="D13" s="346"/>
+      <c r="E13" s="346"/>
+      <c r="F13" s="347"/>
       <c r="G13" s="99"/>
       <c r="H13" s="99"/>
       <c r="I13" s="99"/>
@@ -20920,14 +20976,14 @@
       <c r="P22" s="136"/>
     </row>
     <row r="23" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="356" t="s">
+      <c r="A23" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="357"/>
-      <c r="C23" s="357"/>
-      <c r="D23" s="357"/>
-      <c r="E23" s="357"/>
-      <c r="F23" s="358"/>
+      <c r="B23" s="346"/>
+      <c r="C23" s="346"/>
+      <c r="D23" s="346"/>
+      <c r="E23" s="346"/>
+      <c r="F23" s="347"/>
       <c r="G23" s="99"/>
       <c r="H23" s="99"/>
       <c r="I23" s="99"/>
@@ -21053,14 +21109,14 @@
       <c r="P26" s="136"/>
     </row>
     <row r="27" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="356" t="s">
+      <c r="A27" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="357"/>
-      <c r="C27" s="357"/>
-      <c r="D27" s="357"/>
-      <c r="E27" s="357"/>
-      <c r="F27" s="358"/>
+      <c r="B27" s="346"/>
+      <c r="C27" s="346"/>
+      <c r="D27" s="346"/>
+      <c r="E27" s="346"/>
+      <c r="F27" s="347"/>
       <c r="G27" s="99"/>
       <c r="H27" s="99"/>
       <c r="I27" s="99"/>
@@ -21189,14 +21245,14 @@
       <c r="P30" s="136"/>
     </row>
     <row r="31" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="356" t="s">
+      <c r="A31" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="357"/>
-      <c r="C31" s="357"/>
-      <c r="D31" s="357"/>
-      <c r="E31" s="357"/>
-      <c r="F31" s="358"/>
+      <c r="B31" s="346"/>
+      <c r="C31" s="346"/>
+      <c r="D31" s="346"/>
+      <c r="E31" s="346"/>
+      <c r="F31" s="347"/>
       <c r="G31" s="99"/>
       <c r="H31" s="99"/>
       <c r="I31" s="99"/>
@@ -22142,14 +22198,14 @@
       <c r="P55" s="136"/>
     </row>
     <row r="56" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="356" t="s">
+      <c r="A56" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="357"/>
-      <c r="C56" s="357"/>
-      <c r="D56" s="357"/>
-      <c r="E56" s="357"/>
-      <c r="F56" s="358"/>
+      <c r="B56" s="346"/>
+      <c r="C56" s="346"/>
+      <c r="D56" s="346"/>
+      <c r="E56" s="346"/>
+      <c r="F56" s="347"/>
       <c r="G56" s="99"/>
       <c r="H56" s="99"/>
       <c r="I56" s="99"/>
@@ -22275,14 +22331,14 @@
       <c r="P59" s="136"/>
     </row>
     <row r="60" spans="1:16" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="356" t="s">
+      <c r="A60" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="357"/>
-      <c r="C60" s="357"/>
-      <c r="D60" s="357"/>
-      <c r="E60" s="357"/>
-      <c r="F60" s="358"/>
+      <c r="B60" s="346"/>
+      <c r="C60" s="346"/>
+      <c r="D60" s="346"/>
+      <c r="E60" s="346"/>
+      <c r="F60" s="347"/>
       <c r="G60" s="99"/>
       <c r="H60" s="99"/>
       <c r="I60" s="99"/>
@@ -22492,14 +22548,14 @@
       <c r="P65" s="136"/>
     </row>
     <row r="66" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="359" t="s">
+      <c r="A66" s="348" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="360"/>
-      <c r="C66" s="360"/>
-      <c r="D66" s="360"/>
-      <c r="E66" s="360"/>
-      <c r="F66" s="361"/>
+      <c r="B66" s="349"/>
+      <c r="C66" s="349"/>
+      <c r="D66" s="349"/>
+      <c r="E66" s="349"/>
+      <c r="F66" s="350"/>
       <c r="G66" s="100"/>
       <c r="H66" s="100"/>
       <c r="I66" s="100"/>
@@ -22579,14 +22635,14 @@
       <c r="P68" s="136"/>
     </row>
     <row r="69" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="356" t="s">
+      <c r="A69" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="357"/>
-      <c r="C69" s="357"/>
-      <c r="D69" s="357"/>
-      <c r="E69" s="357"/>
-      <c r="F69" s="358"/>
+      <c r="B69" s="346"/>
+      <c r="C69" s="346"/>
+      <c r="D69" s="346"/>
+      <c r="E69" s="346"/>
+      <c r="F69" s="347"/>
       <c r="G69" s="99"/>
       <c r="H69" s="99"/>
       <c r="I69" s="99"/>
@@ -22754,14 +22810,14 @@
       <c r="P73" s="136"/>
     </row>
     <row r="74" spans="1:16" s="47" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="356" t="s">
+      <c r="A74" s="345" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="357"/>
-      <c r="C74" s="357"/>
-      <c r="D74" s="357"/>
-      <c r="E74" s="357"/>
-      <c r="F74" s="358"/>
+      <c r="B74" s="346"/>
+      <c r="C74" s="346"/>
+      <c r="D74" s="346"/>
+      <c r="E74" s="346"/>
+      <c r="F74" s="347"/>
       <c r="G74" s="99"/>
       <c r="H74" s="99"/>
       <c r="I74" s="99"/>
@@ -22885,14 +22941,14 @@
       <c r="P77" s="136"/>
     </row>
     <row r="78" spans="1:16" s="50" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="356" t="s">
+      <c r="A78" s="345" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="357"/>
-      <c r="C78" s="357"/>
-      <c r="D78" s="357"/>
-      <c r="E78" s="357"/>
-      <c r="F78" s="358"/>
+      <c r="B78" s="346"/>
+      <c r="C78" s="346"/>
+      <c r="D78" s="346"/>
+      <c r="E78" s="346"/>
+      <c r="F78" s="347"/>
       <c r="G78" s="99"/>
       <c r="H78" s="99"/>
       <c r="I78" s="99"/>
@@ -23102,14 +23158,14 @@
       <c r="P83" s="136"/>
     </row>
     <row r="84" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="353" t="s">
+      <c r="A84" s="342" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="354"/>
-      <c r="C84" s="354"/>
-      <c r="D84" s="354"/>
-      <c r="E84" s="354"/>
-      <c r="F84" s="355"/>
+      <c r="B84" s="343"/>
+      <c r="C84" s="343"/>
+      <c r="D84" s="343"/>
+      <c r="E84" s="343"/>
+      <c r="F84" s="344"/>
       <c r="G84" s="98"/>
       <c r="H84" s="98"/>
       <c r="I84" s="98"/>
@@ -23125,14 +23181,14 @@
       <c r="P84" s="136"/>
     </row>
     <row r="85" spans="1:16" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="353" t="s">
+      <c r="A85" s="342" t="s">
         <v>103</v>
       </c>
-      <c r="B85" s="354"/>
-      <c r="C85" s="354"/>
-      <c r="D85" s="354"/>
-      <c r="E85" s="354"/>
-      <c r="F85" s="355"/>
+      <c r="B85" s="343"/>
+      <c r="C85" s="343"/>
+      <c r="D85" s="343"/>
+      <c r="E85" s="343"/>
+      <c r="F85" s="344"/>
       <c r="G85" s="98"/>
       <c r="H85" s="98"/>
       <c r="I85" s="98"/>
@@ -23164,6 +23220,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:D7"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="A85:F85"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A23:F23"/>
@@ -23176,17 +23243,6 @@
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A78:F78"/>
     <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:D7"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
   <pageMargins left="0.5" right="0.25" top="0.75" bottom="0.53" header="0.5" footer="0.12"/>
@@ -23264,19 +23320,19 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:56" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="369" t="s">
+      <c r="A4" s="363" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="369"/>
-      <c r="C4" s="369"/>
-      <c r="D4" s="369"/>
-      <c r="E4" s="369"/>
-      <c r="F4" s="369"/>
-      <c r="G4" s="369"/>
-      <c r="H4" s="369"/>
-      <c r="I4" s="369"/>
-      <c r="J4" s="369"/>
-      <c r="K4" s="369"/>
+      <c r="B4" s="363"/>
+      <c r="C4" s="363"/>
+      <c r="D4" s="363"/>
+      <c r="E4" s="363"/>
+      <c r="F4" s="363"/>
+      <c r="G4" s="363"/>
+      <c r="H4" s="363"/>
+      <c r="I4" s="363"/>
+      <c r="J4" s="363"/>
+      <c r="K4" s="363"/>
     </row>
     <row r="5" spans="1:56" s="232" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -23337,60 +23393,60 @@
       <c r="BD5" s="1"/>
     </row>
     <row r="6" spans="1:56" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="341" t="s">
+      <c r="A6" s="351" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="351" t="s">
+      <c r="B6" s="361" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="343" t="s">
+      <c r="C6" s="353" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="343"/>
-      <c r="E6" s="343"/>
-      <c r="F6" s="343"/>
-      <c r="G6" s="344" t="s">
+      <c r="D6" s="353"/>
+      <c r="E6" s="353"/>
+      <c r="F6" s="353"/>
+      <c r="G6" s="354" t="s">
         <v>274</v>
       </c>
-      <c r="H6" s="345"/>
-      <c r="I6" s="345"/>
-      <c r="J6" s="345"/>
-      <c r="K6" s="346"/>
+      <c r="H6" s="355"/>
+      <c r="I6" s="355"/>
+      <c r="J6" s="355"/>
+      <c r="K6" s="356"/>
     </row>
     <row r="7" spans="1:56" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="341"/>
-      <c r="B7" s="364"/>
-      <c r="C7" s="349" t="s">
+      <c r="A7" s="351"/>
+      <c r="B7" s="370"/>
+      <c r="C7" s="359" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="351" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="349" t="s">
+      <c r="D7" s="361" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="359" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="349" t="s">
+      <c r="F7" s="359" t="s">
         <v>273</v>
       </c>
-      <c r="G7" s="344" t="s">
+      <c r="G7" s="354" t="s">
         <v>267</v>
       </c>
-      <c r="H7" s="346"/>
-      <c r="I7" s="344" t="s">
+      <c r="H7" s="356"/>
+      <c r="I7" s="354" t="s">
         <v>268</v>
       </c>
-      <c r="J7" s="346"/>
-      <c r="K7" s="347" t="s">
+      <c r="J7" s="356"/>
+      <c r="K7" s="357" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:56" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="341"/>
-      <c r="B8" s="363"/>
-      <c r="C8" s="362"/>
-      <c r="D8" s="363"/>
-      <c r="E8" s="362"/>
-      <c r="F8" s="362"/>
+      <c r="A8" s="351"/>
+      <c r="B8" s="369"/>
+      <c r="C8" s="368"/>
+      <c r="D8" s="369"/>
+      <c r="E8" s="368"/>
+      <c r="F8" s="368"/>
       <c r="G8" s="331" t="s">
         <v>275</v>
       </c>
@@ -23403,7 +23459,7 @@
       <c r="J8" s="331" t="s">
         <v>270</v>
       </c>
-      <c r="K8" s="348"/>
+      <c r="K8" s="358"/>
     </row>
     <row r="9" spans="1:56" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -23549,12 +23605,12 @@
       <c r="N12" s="136"/>
     </row>
     <row r="13" spans="1:56" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="365" t="s">
+      <c r="A13" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="366"/>
-      <c r="C13" s="366"/>
-      <c r="D13" s="366"/>
+      <c r="B13" s="365"/>
+      <c r="C13" s="365"/>
+      <c r="D13" s="365"/>
       <c r="E13" s="241"/>
       <c r="F13" s="241"/>
       <c r="G13" s="241"/>
@@ -23633,12 +23689,12 @@
       <c r="N15" s="136"/>
     </row>
     <row r="16" spans="1:56" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="365" t="s">
+      <c r="A16" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="366"/>
-      <c r="C16" s="366"/>
-      <c r="D16" s="366"/>
+      <c r="B16" s="365"/>
+      <c r="C16" s="365"/>
+      <c r="D16" s="365"/>
       <c r="E16" s="248"/>
       <c r="F16" s="248"/>
       <c r="G16" s="248"/>
@@ -23716,12 +23772,12 @@
       <c r="N18" s="136"/>
     </row>
     <row r="19" spans="1:14" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="365" t="s">
+      <c r="A19" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="366"/>
-      <c r="C19" s="366"/>
-      <c r="D19" s="366"/>
+      <c r="B19" s="365"/>
+      <c r="C19" s="365"/>
+      <c r="D19" s="365"/>
       <c r="E19" s="241"/>
       <c r="F19" s="241"/>
       <c r="G19" s="241"/>
@@ -24203,12 +24259,12 @@
       <c r="N32" s="136"/>
     </row>
     <row r="33" spans="1:14" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="365" t="s">
+      <c r="A33" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="366"/>
-      <c r="C33" s="366"/>
-      <c r="D33" s="366"/>
+      <c r="B33" s="365"/>
+      <c r="C33" s="365"/>
+      <c r="D33" s="365"/>
       <c r="E33" s="241"/>
       <c r="F33" s="241"/>
       <c r="G33" s="241"/>
@@ -25090,12 +25146,12 @@
       <c r="N57" s="136"/>
     </row>
     <row r="58" spans="1:14" s="266" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="365" t="s">
+      <c r="A58" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="366"/>
-      <c r="C58" s="366"/>
-      <c r="D58" s="366"/>
+      <c r="B58" s="365"/>
+      <c r="C58" s="365"/>
+      <c r="D58" s="365"/>
       <c r="E58" s="241"/>
       <c r="F58" s="241"/>
       <c r="G58" s="241"/>
@@ -25173,12 +25229,12 @@
       <c r="N60" s="136"/>
     </row>
     <row r="61" spans="1:14" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="365" t="s">
+      <c r="A61" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="366"/>
-      <c r="C61" s="366"/>
-      <c r="D61" s="366"/>
+      <c r="B61" s="365"/>
+      <c r="C61" s="365"/>
+      <c r="D61" s="365"/>
       <c r="E61" s="241"/>
       <c r="F61" s="241"/>
       <c r="G61" s="241"/>
@@ -25725,12 +25781,12 @@
       <c r="N75" s="136"/>
     </row>
     <row r="76" spans="1:14" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="365" t="s">
+      <c r="A76" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="B76" s="366"/>
-      <c r="C76" s="366"/>
-      <c r="D76" s="366"/>
+      <c r="B76" s="365"/>
+      <c r="C76" s="365"/>
+      <c r="D76" s="365"/>
       <c r="E76" s="241"/>
       <c r="F76" s="241"/>
       <c r="G76" s="241"/>
@@ -25808,12 +25864,12 @@
       <c r="N78" s="136"/>
     </row>
     <row r="79" spans="1:14" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="365" t="s">
+      <c r="A79" s="364" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="366"/>
-      <c r="C79" s="366"/>
-      <c r="D79" s="366"/>
+      <c r="B79" s="365"/>
+      <c r="C79" s="365"/>
+      <c r="D79" s="365"/>
       <c r="E79" s="241"/>
       <c r="F79" s="241"/>
       <c r="G79" s="241"/>
@@ -26095,12 +26151,12 @@
       <c r="N86" s="136"/>
     </row>
     <row r="87" spans="1:14" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="367" t="s">
+      <c r="A87" s="366" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="368"/>
-      <c r="C87" s="368"/>
-      <c r="D87" s="368"/>
+      <c r="B87" s="367"/>
+      <c r="C87" s="367"/>
+      <c r="D87" s="367"/>
       <c r="E87" s="288"/>
       <c r="F87" s="288"/>
       <c r="G87" s="288"/>
@@ -26116,12 +26172,12 @@
       <c r="N87" s="136"/>
     </row>
     <row r="88" spans="1:14" s="9" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="367" t="s">
+      <c r="A88" s="366" t="s">
         <v>262</v>
       </c>
-      <c r="B88" s="368"/>
-      <c r="C88" s="368"/>
-      <c r="D88" s="368"/>
+      <c r="B88" s="367"/>
+      <c r="C88" s="367"/>
+      <c r="D88" s="367"/>
       <c r="E88" s="289"/>
       <c r="F88" s="289"/>
       <c r="G88" s="289"/>
@@ -27334,6 +27390,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A79:D79"/>
@@ -27350,12 +27412,6 @@
     <mergeCell ref="G6:K6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B6:B8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.23622047244094491" top="0.74803149606299213" bottom="0.55118110236220474" header="0.51181102362204722" footer="0.11811023622047245"/>
@@ -27837,11 +27893,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="108" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="398" t="s">
+      <c r="A1" s="374" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="398"/>
-      <c r="C1" s="398"/>
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
       <c r="F1" s="109"/>
       <c r="G1" s="5"/>
       <c r="H1" s="110"/>
@@ -27874,19 +27930,19 @@
       <c r="K3" s="111"/>
     </row>
     <row r="4" spans="1:12" s="116" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="399" t="s">
+      <c r="A4" s="375" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="399"/>
-      <c r="C4" s="399"/>
-      <c r="D4" s="399"/>
-      <c r="E4" s="399"/>
-      <c r="F4" s="399"/>
-      <c r="G4" s="399"/>
-      <c r="H4" s="399"/>
-      <c r="I4" s="399"/>
-      <c r="J4" s="399"/>
-      <c r="K4" s="399"/>
+      <c r="B4" s="375"/>
+      <c r="C4" s="375"/>
+      <c r="D4" s="375"/>
+      <c r="E4" s="375"/>
+      <c r="F4" s="375"/>
+      <c r="G4" s="375"/>
+      <c r="H4" s="375"/>
+      <c r="I4" s="375"/>
+      <c r="J4" s="375"/>
+      <c r="K4" s="375"/>
     </row>
     <row r="5" spans="1:12" s="118" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="117"/>
@@ -27900,63 +27956,63 @@
       <c r="K5" s="119"/>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="341" t="s">
+      <c r="A6" s="351" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="370" t="s">
+      <c r="B6" s="395" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="371"/>
-      <c r="D6" s="343" t="s">
+      <c r="C6" s="396"/>
+      <c r="D6" s="353" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="343"/>
-      <c r="F6" s="343"/>
-      <c r="G6" s="343"/>
-      <c r="H6" s="344" t="s">
+      <c r="E6" s="353"/>
+      <c r="F6" s="353"/>
+      <c r="G6" s="353"/>
+      <c r="H6" s="354" t="s">
         <v>274</v>
       </c>
-      <c r="I6" s="345"/>
-      <c r="J6" s="345"/>
-      <c r="K6" s="345"/>
-      <c r="L6" s="346"/>
+      <c r="I6" s="355"/>
+      <c r="J6" s="355"/>
+      <c r="K6" s="355"/>
+      <c r="L6" s="356"/>
     </row>
     <row r="7" spans="1:12" s="10" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="341"/>
-      <c r="B7" s="372"/>
-      <c r="C7" s="373"/>
-      <c r="D7" s="349" t="s">
+      <c r="A7" s="351"/>
+      <c r="B7" s="397"/>
+      <c r="C7" s="398"/>
+      <c r="D7" s="359" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="351" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="349" t="s">
+      <c r="E7" s="361" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="359" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="349" t="s">
+      <c r="G7" s="359" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="344" t="s">
+      <c r="H7" s="354" t="s">
         <v>267</v>
       </c>
-      <c r="I7" s="346"/>
-      <c r="J7" s="344" t="s">
+      <c r="I7" s="356"/>
+      <c r="J7" s="354" t="s">
         <v>268</v>
       </c>
-      <c r="K7" s="346"/>
-      <c r="L7" s="347" t="s">
+      <c r="K7" s="356"/>
+      <c r="L7" s="357" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="341"/>
-      <c r="B8" s="374"/>
-      <c r="C8" s="375"/>
-      <c r="D8" s="350"/>
-      <c r="E8" s="352"/>
-      <c r="F8" s="350"/>
-      <c r="G8" s="350"/>
+      <c r="A8" s="351"/>
+      <c r="B8" s="399"/>
+      <c r="C8" s="400"/>
+      <c r="D8" s="360"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="360"/>
+      <c r="G8" s="360"/>
       <c r="H8" s="331" t="s">
         <v>275</v>
       </c>
@@ -27969,7 +28025,7 @@
       <c r="K8" s="331" t="s">
         <v>270</v>
       </c>
-      <c r="L8" s="348"/>
+      <c r="L8" s="358"/>
     </row>
     <row r="9" spans="1:12" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="121">
@@ -27993,18 +28049,18 @@
       <c r="A10" s="127">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="391" t="s">
+      <c r="B10" s="388" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="392"/>
-      <c r="D10" s="392"/>
-      <c r="E10" s="392"/>
-      <c r="F10" s="392"/>
-      <c r="G10" s="392"/>
-      <c r="H10" s="392"/>
-      <c r="I10" s="392"/>
-      <c r="J10" s="392"/>
-      <c r="K10" s="393"/>
+      <c r="C10" s="389"/>
+      <c r="D10" s="389"/>
+      <c r="E10" s="389"/>
+      <c r="F10" s="389"/>
+      <c r="G10" s="389"/>
+      <c r="H10" s="389"/>
+      <c r="I10" s="389"/>
+      <c r="J10" s="389"/>
+      <c r="K10" s="390"/>
       <c r="L10" s="137"/>
     </row>
     <row r="11" spans="1:12" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28069,7 +28125,7 @@
         <f t="shared" ref="I12:I16" si="0">H12*F12</f>
         <v>98289.3</v>
       </c>
-      <c r="J12" s="400">
+      <c r="J12" s="337">
         <f t="shared" ref="J12:J16" si="1">H12</f>
         <v>18.3</v>
       </c>
@@ -28572,10 +28628,10 @@
       <c r="A27" s="154">
         <v>1.3</v>
       </c>
-      <c r="B27" s="394" t="s">
+      <c r="B27" s="391" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="395"/>
+      <c r="C27" s="392"/>
       <c r="D27" s="155">
         <v>1</v>
       </c>
@@ -28615,10 +28671,10 @@
       <c r="A28" s="154">
         <v>1.4</v>
       </c>
-      <c r="B28" s="389" t="s">
+      <c r="B28" s="384" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="390"/>
+      <c r="C28" s="385"/>
       <c r="D28" s="155">
         <v>1</v>
       </c>
@@ -28658,10 +28714,10 @@
       <c r="A29" s="156">
         <v>1.5</v>
       </c>
-      <c r="B29" s="394" t="s">
+      <c r="B29" s="391" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="395"/>
+      <c r="C29" s="392"/>
       <c r="D29" s="157">
         <v>5</v>
       </c>
@@ -28701,10 +28757,10 @@
       <c r="A30" s="154">
         <v>1.6</v>
       </c>
-      <c r="B30" s="394" t="s">
+      <c r="B30" s="391" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="395"/>
+      <c r="C30" s="392"/>
       <c r="D30" s="157">
         <v>1</v>
       </c>
@@ -28744,10 +28800,10 @@
       <c r="A31" s="156">
         <v>1.7</v>
       </c>
-      <c r="B31" s="394" t="s">
+      <c r="B31" s="391" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="395"/>
+      <c r="C31" s="392"/>
       <c r="D31" s="157">
         <v>1</v>
       </c>
@@ -28784,13 +28840,13 @@
       <c r="O31" s="136"/>
     </row>
     <row r="32" spans="1:15" s="128" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="376" t="s">
+      <c r="A32" s="371" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="377"/>
-      <c r="C32" s="377"/>
-      <c r="D32" s="377"/>
-      <c r="E32" s="378"/>
+      <c r="B32" s="372"/>
+      <c r="C32" s="372"/>
+      <c r="D32" s="372"/>
+      <c r="E32" s="373"/>
       <c r="F32" s="159"/>
       <c r="G32" s="160">
         <f>SUM(G11:G31)</f>
@@ -29424,10 +29480,10 @@
       <c r="A51" s="193">
         <v>2.4</v>
       </c>
-      <c r="B51" s="394" t="s">
+      <c r="B51" s="391" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="395"/>
+      <c r="C51" s="392"/>
       <c r="D51" s="146">
         <v>1</v>
       </c>
@@ -29467,10 +29523,10 @@
       <c r="A52" s="193">
         <v>2.5</v>
       </c>
-      <c r="B52" s="394" t="s">
+      <c r="B52" s="391" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="395"/>
+      <c r="C52" s="392"/>
       <c r="D52" s="146">
         <v>1</v>
       </c>
@@ -29531,10 +29587,10 @@
       <c r="A54" s="188" t="s">
         <v>158</v>
       </c>
-      <c r="B54" s="396" t="s">
+      <c r="B54" s="393" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="397"/>
+      <c r="C54" s="394"/>
       <c r="D54" s="190">
         <v>2</v>
       </c>
@@ -29571,13 +29627,13 @@
       <c r="O54" s="136"/>
     </row>
     <row r="55" spans="1:15" s="128" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="376" t="s">
+      <c r="A55" s="371" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="377"/>
-      <c r="C55" s="377"/>
-      <c r="D55" s="377"/>
-      <c r="E55" s="378"/>
+      <c r="B55" s="372"/>
+      <c r="C55" s="372"/>
+      <c r="D55" s="372"/>
+      <c r="E55" s="373"/>
       <c r="F55" s="159"/>
       <c r="G55" s="160">
         <f>SUM(G35:G54)</f>
@@ -29625,18 +29681,18 @@
       <c r="A57" s="168">
         <v>3.1</v>
       </c>
-      <c r="B57" s="386" t="s">
+      <c r="B57" s="381" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="387"/>
-      <c r="D57" s="387"/>
-      <c r="E57" s="387"/>
-      <c r="F57" s="387"/>
-      <c r="G57" s="387"/>
-      <c r="H57" s="387"/>
-      <c r="I57" s="387"/>
-      <c r="J57" s="387"/>
-      <c r="K57" s="388"/>
+      <c r="C57" s="382"/>
+      <c r="D57" s="382"/>
+      <c r="E57" s="382"/>
+      <c r="F57" s="382"/>
+      <c r="G57" s="382"/>
+      <c r="H57" s="382"/>
+      <c r="I57" s="382"/>
+      <c r="J57" s="382"/>
+      <c r="K57" s="383"/>
       <c r="L57" s="137"/>
       <c r="M57" s="136"/>
       <c r="N57" s="136"/>
@@ -29842,18 +29898,18 @@
       <c r="A63" s="168">
         <v>3.2</v>
       </c>
-      <c r="B63" s="386" t="s">
+      <c r="B63" s="381" t="s">
         <v>169</v>
       </c>
-      <c r="C63" s="387"/>
-      <c r="D63" s="387"/>
-      <c r="E63" s="387"/>
-      <c r="F63" s="387"/>
-      <c r="G63" s="387"/>
-      <c r="H63" s="387"/>
-      <c r="I63" s="387"/>
-      <c r="J63" s="387"/>
-      <c r="K63" s="388"/>
+      <c r="C63" s="382"/>
+      <c r="D63" s="382"/>
+      <c r="E63" s="382"/>
+      <c r="F63" s="382"/>
+      <c r="G63" s="382"/>
+      <c r="H63" s="382"/>
+      <c r="I63" s="382"/>
+      <c r="J63" s="382"/>
+      <c r="K63" s="383"/>
       <c r="M63" s="136"/>
       <c r="N63" s="136"/>
       <c r="O63" s="136"/>
@@ -29983,18 +30039,18 @@
       <c r="A67" s="168">
         <v>3.3</v>
       </c>
-      <c r="B67" s="386" t="s">
+      <c r="B67" s="381" t="s">
         <v>173</v>
       </c>
-      <c r="C67" s="387"/>
-      <c r="D67" s="387"/>
-      <c r="E67" s="387"/>
-      <c r="F67" s="387"/>
-      <c r="G67" s="387"/>
-      <c r="H67" s="387"/>
-      <c r="I67" s="387"/>
-      <c r="J67" s="387"/>
-      <c r="K67" s="388"/>
+      <c r="C67" s="382"/>
+      <c r="D67" s="382"/>
+      <c r="E67" s="382"/>
+      <c r="F67" s="382"/>
+      <c r="G67" s="382"/>
+      <c r="H67" s="382"/>
+      <c r="I67" s="382"/>
+      <c r="J67" s="382"/>
+      <c r="K67" s="383"/>
       <c r="L67" s="137"/>
       <c r="M67" s="136"/>
       <c r="N67" s="136"/>
@@ -30198,10 +30254,10 @@
       <c r="A74" s="203">
         <v>3.4</v>
       </c>
-      <c r="B74" s="389" t="s">
+      <c r="B74" s="384" t="s">
         <v>184</v>
       </c>
-      <c r="C74" s="390"/>
+      <c r="C74" s="385"/>
       <c r="D74" s="201">
         <v>1</v>
       </c>
@@ -30239,10 +30295,10 @@
       <c r="A75" s="203">
         <v>3.5</v>
       </c>
-      <c r="B75" s="389" t="s">
+      <c r="B75" s="384" t="s">
         <v>185</v>
       </c>
-      <c r="C75" s="390"/>
+      <c r="C75" s="385"/>
       <c r="D75" s="201">
         <v>1</v>
       </c>
@@ -30277,13 +30333,13 @@
       <c r="O75" s="136"/>
     </row>
     <row r="76" spans="1:15" s="128" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="376" t="s">
+      <c r="A76" s="371" t="s">
         <v>13</v>
       </c>
-      <c r="B76" s="377"/>
-      <c r="C76" s="377"/>
-      <c r="D76" s="377"/>
-      <c r="E76" s="378"/>
+      <c r="B76" s="372"/>
+      <c r="C76" s="372"/>
+      <c r="D76" s="372"/>
+      <c r="E76" s="373"/>
       <c r="F76" s="159"/>
       <c r="G76" s="160">
         <f>SUM(G58:G75)</f>
@@ -30331,10 +30387,10 @@
       <c r="A78" s="210">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B78" s="384" t="s">
+      <c r="B78" s="379" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="385"/>
+      <c r="C78" s="380"/>
       <c r="D78" s="211">
         <v>3</v>
       </c>
@@ -30372,10 +30428,10 @@
       <c r="A79" s="210">
         <v>4.2</v>
       </c>
-      <c r="B79" s="384" t="s">
+      <c r="B79" s="379" t="s">
         <v>188</v>
       </c>
-      <c r="C79" s="385"/>
+      <c r="C79" s="380"/>
       <c r="D79" s="211">
         <v>3</v>
       </c>
@@ -30413,10 +30469,10 @@
       <c r="A80" s="210">
         <v>4.3</v>
       </c>
-      <c r="B80" s="384" t="s">
+      <c r="B80" s="379" t="s">
         <v>189</v>
       </c>
-      <c r="C80" s="385"/>
+      <c r="C80" s="380"/>
       <c r="D80" s="211">
         <v>3</v>
       </c>
@@ -30454,10 +30510,10 @@
       <c r="A81" s="210">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B81" s="384" t="s">
+      <c r="B81" s="379" t="s">
         <v>190</v>
       </c>
-      <c r="C81" s="385"/>
+      <c r="C81" s="380"/>
       <c r="D81" s="211">
         <v>1</v>
       </c>
@@ -30495,10 +30551,10 @@
       <c r="A82" s="210">
         <v>4.5</v>
       </c>
-      <c r="B82" s="384" t="s">
+      <c r="B82" s="379" t="s">
         <v>191</v>
       </c>
-      <c r="C82" s="385"/>
+      <c r="C82" s="380"/>
       <c r="D82" s="211">
         <v>3</v>
       </c>
@@ -30618,10 +30674,10 @@
       <c r="A85" s="210">
         <v>4.8</v>
       </c>
-      <c r="B85" s="389" t="s">
+      <c r="B85" s="384" t="s">
         <v>194</v>
       </c>
-      <c r="C85" s="390"/>
+      <c r="C85" s="385"/>
       <c r="D85" s="214">
         <v>1</v>
       </c>
@@ -30659,10 +30715,10 @@
       <c r="A86" s="210">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B86" s="384" t="s">
+      <c r="B86" s="379" t="s">
         <v>195</v>
       </c>
-      <c r="C86" s="385"/>
+      <c r="C86" s="380"/>
       <c r="D86" s="211">
         <v>3</v>
       </c>
@@ -30697,13 +30753,13 @@
       <c r="O86" s="136"/>
     </row>
     <row r="87" spans="1:15" s="128" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="376" t="s">
+      <c r="A87" s="371" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="377"/>
-      <c r="C87" s="377"/>
-      <c r="D87" s="377"/>
-      <c r="E87" s="378"/>
+      <c r="B87" s="372"/>
+      <c r="C87" s="372"/>
+      <c r="D87" s="372"/>
+      <c r="E87" s="373"/>
       <c r="F87" s="159"/>
       <c r="G87" s="160">
         <f>SUM(G78:G86)</f>
@@ -30878,10 +30934,10 @@
       <c r="A92" s="221">
         <v>5.4</v>
       </c>
-      <c r="B92" s="379" t="s">
+      <c r="B92" s="386" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="380"/>
+      <c r="C92" s="387"/>
       <c r="D92" s="201">
         <v>1</v>
       </c>
@@ -30919,10 +30975,10 @@
       <c r="A93" s="221">
         <v>5.5</v>
       </c>
-      <c r="B93" s="379" t="s">
+      <c r="B93" s="386" t="s">
         <v>198</v>
       </c>
-      <c r="C93" s="380"/>
+      <c r="C93" s="387"/>
       <c r="D93" s="201">
         <v>1</v>
       </c>
@@ -30959,13 +31015,13 @@
       <c r="O93" s="136"/>
     </row>
     <row r="94" spans="1:15" s="128" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="381" t="s">
+      <c r="A94" s="376" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="382"/>
-      <c r="C94" s="382"/>
-      <c r="D94" s="382"/>
-      <c r="E94" s="383"/>
+      <c r="B94" s="377"/>
+      <c r="C94" s="377"/>
+      <c r="D94" s="377"/>
+      <c r="E94" s="378"/>
       <c r="F94" s="224"/>
       <c r="G94" s="160"/>
       <c r="H94" s="224"/>
@@ -30987,13 +31043,13 @@
       <c r="O94" s="136"/>
     </row>
     <row r="95" spans="1:15" s="128" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="381" t="s">
+      <c r="A95" s="376" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="382"/>
-      <c r="C95" s="382"/>
-      <c r="D95" s="382"/>
-      <c r="E95" s="383"/>
+      <c r="B95" s="377"/>
+      <c r="C95" s="377"/>
+      <c r="D95" s="377"/>
+      <c r="E95" s="378"/>
       <c r="F95" s="224"/>
       <c r="G95" s="160"/>
       <c r="H95" s="224"/>
@@ -31013,6 +31069,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="B92:C92"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:K4"/>
@@ -31029,32 +31111,6 @@
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
   <pageMargins left="0.27559055118110237" right="0.23622047244094491" top="0.74803149606299213" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.15748031496062992"/>
